--- a/public/plano_focus/plantilla.xlsx
+++ b/public/plano_focus/plantilla.xlsx
@@ -2,19 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7895A76-E338-42AD-8A96-E3D9BD480DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48A8BC7-3AA0-4AC7-955C-102D36B93740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C042308F-87F8-4837-A9E1-A6AB440AF1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANO FOCUS" sheetId="2" r:id="rId1"/>
-    <sheet name="SEGUIMIENTO VENTAS" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>CONSECUTIVO</t>
   </si>
@@ -45,24 +44,6 @@
     <t>ASESOR</t>
   </si>
   <si>
-    <t>NOMBRE DEL CLIENTE</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>FECHA DE ENVIO DE FIRMA</t>
-  </si>
-  <si>
-    <t>FIRMADA</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>EMPRESA</t>
-  </si>
-  <si>
     <t>CELULAR</t>
   </si>
   <si>
@@ -75,28 +56,7 @@
     <t>EDAD</t>
   </si>
   <si>
-    <t>NBASICO1</t>
-  </si>
-  <si>
-    <t>NADICIONAL1</t>
-  </si>
-  <si>
-    <t>NBASICO2</t>
-  </si>
-  <si>
-    <t>NVALPRIMA</t>
-  </si>
-  <si>
     <t>VALOR GASTO ADTIVO</t>
-  </si>
-  <si>
-    <t>VALIDACION DE LA PRIMA</t>
-  </si>
-  <si>
-    <t>OPERADOR</t>
-  </si>
-  <si>
-    <t>CUENTA</t>
   </si>
   <si>
     <t>TIPO DE CUENTA</t>
@@ -385,18 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,27 +397,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,65 +544,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1020,415 +943,415 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:98" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="BV1" s="9"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="9"/>
-      <c r="CA1" s="9"/>
-      <c r="CB1" s="9"/>
-      <c r="CC1" s="9"/>
-      <c r="CD1" s="9"/>
-      <c r="CE1" s="9"/>
-      <c r="CF1" s="9"/>
-      <c r="CG1" s="9"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="CJ1" s="9"/>
-      <c r="CK1" s="9"/>
-      <c r="CL1" s="9"/>
-      <c r="CM1" s="9"/>
-      <c r="CN1" s="9"/>
-      <c r="CO1" s="9"/>
-      <c r="CP1" s="9"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="8" t="s">
+    <row r="1" spans="1:98" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="12"/>
+      <c r="CI1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="12"/>
+      <c r="CR1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="11"/>
+      <c r="CS1" s="12"/>
+      <c r="CT1" s="2"/>
     </row>
     <row r="2" spans="1:98" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="T2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="V2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="W2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="X2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="Y2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="Z2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="AA2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="AB2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="AC2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="AE2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="AG2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="15" t="s">
+      <c r="AH2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="AI2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="15" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="AK2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="AL2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="AM2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="AN2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AO2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AP2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AR2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AS2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AT2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AU2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AV2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AW2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AX2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AY2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="BA2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="15" t="s">
+      <c r="BB2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="BC2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="BD2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AR2" s="15" t="s">
+      <c r="BE2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AS2" s="15" t="s">
+      <c r="BF2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="15" t="s">
+      <c r="BG2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AU2" s="15" t="s">
+      <c r="BH2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="15" t="s">
+      <c r="BI2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AW2" s="15" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AX2" s="15" t="s">
+      <c r="BK2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AY2" s="15" t="s">
+      <c r="BM2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="BN2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BA2" s="15" t="s">
+      <c r="BO2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BP2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BQ2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BD2" s="15" t="s">
+      <c r="BS2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="BE2" s="15" t="s">
+      <c r="BT2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="BF2" s="15" t="s">
+      <c r="BU2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BG2" s="15" t="s">
+      <c r="BV2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BW2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="BI2" s="15" t="s">
+      <c r="BX2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="BJ2" s="15" t="s">
+      <c r="BY2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="BK2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL2" s="15" t="s">
+      <c r="BZ2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="BM2" s="15" t="s">
+      <c r="CA2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BN2" s="15" t="s">
+      <c r="CB2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="BO2" s="15" t="s">
+      <c r="CC2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BP2" s="15" t="s">
+      <c r="CD2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="BQ2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR2" s="15" t="s">
+      <c r="CE2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="BS2" s="15" t="s">
+      <c r="CF2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="BT2" s="17" t="s">
+      <c r="CG2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="BU2" s="14" t="s">
+      <c r="CH2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="BV2" s="15" t="s">
+      <c r="CI2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="CJ2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BW2" s="15" t="s">
+      <c r="CK2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="BX2" s="15" t="s">
+      <c r="CL2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="CM2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="BY2" s="15" t="s">
+      <c r="CN2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="BZ2" s="15" t="s">
+      <c r="CO2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CA2" s="15" t="s">
+      <c r="CQ2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="CB2" s="15" t="s">
+      <c r="CR2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CS2" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="CD2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="CE2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="CF2" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="CG2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH2" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="CI2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="CJ2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CK2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="CL2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="CM2" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="CP2" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="CQ2" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="CR2" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="CS2" s="17" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1448,87 +1371,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149DE2CF-445A-4EEF-82A8-C0A2D1B86A54}">
-  <dimension ref="A1:V1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>